--- a/FLOW FOR GUNS.xlsx
+++ b/FLOW FOR GUNS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\Documents\GitHub\PROJECT-2-Visualize-Me-Captain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753D4A08-2835-451B-97A5-C3EA1257DC78}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08293CC4-F1D9-4584-B015-A651B218D9BC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2415" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{5FF5FF3C-6559-4AE6-8088-F2ADE7EEA8DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{5FF5FF3C-6559-4AE6-8088-F2ADE7EEA8DE}"/>
   </bookViews>
   <sheets>
     <sheet name="USE WITH NOTEBOOK CODE" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4777,8 +4781,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4794,7 +4798,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="152400" y="142875"/>
-          <a:ext cx="4838700" cy="1343025"/>
+          <a:ext cx="4838700" cy="1638300"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMultidocument">
           <a:avLst/>
@@ -5961,6 +5965,745 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t> DISPLAY:   Footer</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Flowchart: Process 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C0C5A0D-0754-4DFE-8572-6DF53CEC3C31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15592425" y="190500"/>
+          <a:ext cx="2305050" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FOR HEADERS: CLICK Takes user to Section</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Flowchart: Process 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61A5014E-C6B4-4EBF-9FA0-2D5023FFA10B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14487525" y="1581150"/>
+          <a:ext cx="3000375" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Header with subtitle</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Flowchart: Process 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE181509-BB53-4CAB-8FA6-F5B07A92180A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13087350" y="3228975"/>
+          <a:ext cx="4010025" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FOUR sections with DATA</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Flowchart: Process 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6541E706-F01E-465D-A8B8-D4D67F5FB9D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12734925" y="6677025"/>
+          <a:ext cx="3619500" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Flask Call to get data from DATABASE: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Refreshes VIEWS:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>API call?  for gun ownership</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Flowchart: Process 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3578FF68-5865-4660-8EE0-CF2691FCF0E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12715875" y="7639050"/>
+          <a:ext cx="3629025" cy="1285875"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FLASK call </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>LAYER MORTALITY:  Data contained in  database</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Refreshes state</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> color based on  number of total deathes by year</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>updates  Stats displayed of Breakdown by Homicide / Suicide / Accident</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Flowchart: Process 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BE01E32-B0D7-47F3-846B-530EB4407BC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12725400" y="9001125"/>
+          <a:ext cx="3619500" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>LAYER Mass Shooting:  Data contained in database refreshes </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> CIRCLES with circumfrence based on number of deaths </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Flowchart: Process 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{200D5DAA-EBE5-467C-B5D8-E4EE434DCD5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12963525" y="9753600"/>
+          <a:ext cx="3667125" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>LAYER GUN OWNESHIP: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>UNKNOWN</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Flowchart: Process 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A85844A-7721-46B4-978E-7CF0B275C931}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13411200" y="11049000"/>
+          <a:ext cx="3667125" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>LAYER FBI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> DATA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>UNKNOWN</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Arrow: Right 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{770DC9AD-F7DB-4826-B5E7-EC09A900A1C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5276850" y="9420225"/>
+          <a:ext cx="2619375" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FOUR Static fiews  as images in HTML? </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Arrow: Right 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1665CBC1-FDF6-4A9A-A29A-4919A3A2D85E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4924425" y="11258550"/>
+          <a:ext cx="3190875" cy="1152525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>WEBSCRAPING</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Upon click of button?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Refresh  of Website?</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6273,8 +7016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91229A0B-6466-45F8-AEB7-AA6D096F36AE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
